--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3377.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3377.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253781246185868</v>
+        <v>5.325350284576416</v>
       </c>
       <c r="B1">
-        <v>2.596070672958785</v>
+        <v>3.711971759796143</v>
       </c>
       <c r="C1">
-        <v>4.025455154634435</v>
+        <v>2.04079270362854</v>
       </c>
       <c r="D1">
-        <v>3.605309732927019</v>
+        <v>1.635892152786255</v>
       </c>
       <c r="E1">
-        <v>1.151158518654119</v>
+        <v>1.51152777671814</v>
       </c>
     </row>
   </sheetData>
